--- a/Excel/3查找替换定位/第3讲查找、替换、定位.xlsx
+++ b/Excel/3查找替换定位/第3讲查找、替换、定位.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xmind\Excel\3查找替换定位\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E30793F-C732-4A39-B55B-5AE49129DBE4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9588" yWindow="12" windowWidth="9636" windowHeight="7872" activeTab="3"/>
+    <workbookView xWindow="9585" yWindow="15" windowWidth="9630" windowHeight="7875" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXCEL课件" sheetId="1" r:id="rId1"/>
@@ -16,17 +22,47 @@
     <sheet name="合并" sheetId="19" r:id="rId7"/>
     <sheet name="图片" sheetId="28" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="mark">EXCEL课件!$A$32:$C$34</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>84370</author>
     <author>王佩丰</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{C5A802C6-B390-4189-948C-FE65661111DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>84370:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+质量情况：良好</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="0">
+    <comment ref="G8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -78,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0">
+    <comment ref="G11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0">
+    <comment ref="G14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -130,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0">
+    <comment ref="G17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -156,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0">
+    <comment ref="G19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -772,7 +808,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
@@ -990,7 +1026,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1080,19 +1116,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet1" xfId="2"/>
+    <cellStyle name="常规_Sheet1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1100,6 +1139,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1122,7 +1164,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1160,7 +1208,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1051" name="图片 7"/>
+        <xdr:cNvPr id="1051" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1233,7 +1287,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1277,7 +1337,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1321,7 +1387,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1365,7 +1437,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1409,7 +1487,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1453,7 +1537,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1497,7 +1587,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1572,7 +1668,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1605,9 +1701,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1640,6 +1753,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1815,28 +1945,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor indexed="60"/>
   </sheetPr>
   <dimension ref="A6:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="16.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="3"/>
-    <col min="7" max="8" width="9.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="16.2" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>0</v>
@@ -1895,22 +2025,22 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" s="5" customFormat="1" ht="12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" s="5" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" s="5" customFormat="1" ht="12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" s="5" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B21" s="7" t="s">
         <v>99</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" s="5" customFormat="1" ht="12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" s="5" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" s="5" customFormat="1" ht="12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" s="5" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B23" s="7" t="s">
         <v>100</v>
       </c>
@@ -1918,13 +2048,13 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" s="5" customFormat="1" ht="12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" s="5" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C24" s="7"/>
       <c r="F24" s="7"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" s="5" customFormat="1" ht="12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" s="5" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B25" s="7" t="s">
         <v>101</v>
       </c>
@@ -1933,7 +2063,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" s="5" customFormat="1" ht="12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" s="5" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C26" s="7" t="s">
         <v>102</v>
       </c>
@@ -1944,7 +2074,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" s="5" customFormat="1" ht="12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" s="5" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
         <v>103</v>
@@ -1956,7 +2086,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" s="5" customFormat="1" ht="12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" s="5" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C28" s="7" t="s">
         <v>104</v>
       </c>
@@ -1967,7 +2097,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" s="5" customFormat="1" ht="12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" s="5" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
         <v>105</v>
@@ -1979,8 +2109,8 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" s="5" customFormat="1" ht="12" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:10" s="5" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="5" customFormat="1" ht="12" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="D31" s="3"/>
       <c r="F31" s="3"/>
@@ -1988,10 +2118,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F28" location="合并!A1" display="数据"/>
-    <hyperlink ref="F27" location="公式!A1" display="公式!A1"/>
-    <hyperlink ref="F26" location="批注!A1" display="批注!A1"/>
-    <hyperlink ref="F29" location="图片!A1" display="图片!A1"/>
+    <hyperlink ref="F28" location="合并!A1" display="数据" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F27" location="公式!A1" display="公式!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F26" location="批注!A1" display="批注!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F29" location="图片!A1" display="图片!A1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="200" r:id="rId1"/>
@@ -2001,16 +2131,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>36</v>
       </c>
@@ -2033,7 +2163,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
@@ -2056,7 +2186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>173</v>
       </c>
@@ -2082,7 +2212,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>49</v>
       </c>
@@ -2108,7 +2238,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>173</v>
       </c>
@@ -2131,7 +2261,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>49</v>
       </c>
@@ -2154,7 +2284,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>173</v>
       </c>
@@ -2177,7 +2307,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>49</v>
       </c>
@@ -2200,7 +2330,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>49</v>
       </c>
@@ -2223,7 +2353,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>49</v>
       </c>
@@ -2246,7 +2376,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>173</v>
       </c>
@@ -2269,7 +2399,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
@@ -2292,7 +2422,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>173</v>
       </c>
@@ -2315,7 +2445,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>49</v>
       </c>
@@ -2338,7 +2468,7 @@
         <v>258.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>173</v>
       </c>
@@ -2361,7 +2491,7 @@
         <v>267.08</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>173</v>
       </c>
@@ -2384,7 +2514,7 @@
         <v>277.7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>49</v>
       </c>
@@ -2407,7 +2537,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
@@ -2430,7 +2560,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>173</v>
       </c>
@@ -2453,7 +2583,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>49</v>
       </c>
@@ -2476,7 +2606,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>173</v>
       </c>
@@ -2499,7 +2629,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>49</v>
       </c>
@@ -2529,19 +2659,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
@@ -2552,7 +2682,7 @@
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
@@ -2575,7 +2705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>39162</v>
       </c>
@@ -2598,7 +2728,7 @@
         <v>18982.847759558852</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>39200</v>
       </c>
@@ -2621,7 +2751,7 @@
         <v>40893.083149311875</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <v>39200</v>
       </c>
@@ -2644,7 +2774,7 @@
         <v>22294.085220814908</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <v>39233</v>
       </c>
@@ -2667,7 +2797,7 @@
         <v>24318.374117613792</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <v>39246</v>
       </c>
@@ -2690,7 +2820,7 @@
         <v>20256.694699447638</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
         <v>39279</v>
       </c>
@@ -2713,7 +2843,7 @@
         <v>43537.557757683368</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="17">
         <v>39339</v>
       </c>
@@ -2736,7 +2866,7 @@
         <v>22917.339613203356</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="17">
         <v>39374</v>
       </c>
@@ -2759,7 +2889,7 @@
         <v>44258.364560249865</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="17">
         <v>39406</v>
       </c>
@@ -2782,7 +2912,7 @@
         <v>92391.153643258687</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="17">
         <v>39162</v>
       </c>
@@ -2805,7 +2935,7 @@
         <v>51700.030820578511</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="17">
         <v>39200</v>
       </c>
@@ -2828,7 +2958,7 @@
         <v>50558.498384562939</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="17">
         <v>39200</v>
       </c>
@@ -2851,7 +2981,7 @@
         <v>22115.228953458598</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="17">
         <v>39233</v>
       </c>
@@ -2874,7 +3004,7 @@
         <v>30712.177367957313</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="17">
         <v>39246</v>
       </c>
@@ -2897,7 +3027,7 @@
         <v>32726.657776180989</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="17">
         <v>39279</v>
       </c>
@@ -2920,7 +3050,7 @@
         <v>35738.658109519878</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="17">
         <v>39339</v>
       </c>
@@ -2943,7 +3073,7 @@
         <v>11098.923925167686</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="17">
         <v>39374</v>
       </c>
@@ -2966,7 +3096,7 @@
         <v>29398.00409440554</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="17">
         <v>39406</v>
       </c>
@@ -3000,16 +3130,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>77</v>
       </c>
@@ -3032,7 +3162,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>81</v>
       </c>
@@ -3058,7 +3188,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>81</v>
       </c>
@@ -3084,7 +3214,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>86</v>
       </c>
@@ -3110,7 +3240,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>81</v>
       </c>
@@ -3134,7 +3264,7 @@
       </c>
       <c r="I5" s="26"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>92</v>
       </c>
@@ -3157,7 +3287,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>81</v>
       </c>
@@ -3180,7 +3310,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>92</v>
       </c>
@@ -3203,7 +3333,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>81</v>
       </c>
@@ -3226,7 +3356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>81</v>
       </c>
@@ -3249,7 +3379,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>86</v>
       </c>
@@ -3272,7 +3402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>81</v>
       </c>
@@ -3295,7 +3425,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>92</v>
       </c>
@@ -3318,7 +3448,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>81</v>
       </c>
@@ -3341,7 +3471,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>92</v>
       </c>
@@ -3371,19 +3501,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D4" sqref="D4 G4 G8 G11 G14 G17 G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
@@ -3394,7 +3524,7 @@
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="1:7" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
@@ -3417,7 +3547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>39162</v>
       </c>
@@ -3440,7 +3570,7 @@
         <v>18982.847759558852</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>39200</v>
       </c>
@@ -3450,7 +3580,7 @@
       <c r="C4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="24" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="18">
@@ -3459,11 +3589,11 @@
       <c r="F4" s="19">
         <v>39465.169800000003</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="31">
         <v>40893.083149311875</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <v>39200</v>
       </c>
@@ -3486,7 +3616,7 @@
         <v>22294.085220814908</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <v>39233</v>
       </c>
@@ -3509,7 +3639,7 @@
         <v>24318.374117613792</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <v>39246</v>
       </c>
@@ -3532,7 +3662,7 @@
         <v>20256.694699447638</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
         <v>39279</v>
       </c>
@@ -3551,11 +3681,11 @@
       <c r="F8" s="19">
         <v>40014.12141</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="31">
         <v>43537.557757683368</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="17">
         <v>39339</v>
       </c>
@@ -3578,7 +3708,7 @@
         <v>22917.339613203356</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="17">
         <v>39374</v>
       </c>
@@ -3601,7 +3731,7 @@
         <v>44258.364560249865</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="17">
         <v>39406</v>
       </c>
@@ -3620,11 +3750,11 @@
       <c r="F11" s="19">
         <v>84271.490399999995</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="31">
         <v>92391.153643258687</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="17">
         <v>39162</v>
       </c>
@@ -3647,7 +3777,7 @@
         <v>51700.030820578511</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="17">
         <v>39200</v>
       </c>
@@ -3670,7 +3800,7 @@
         <v>50558.498384562939</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="17">
         <v>39200</v>
       </c>
@@ -3689,11 +3819,11 @@
       <c r="F14" s="19">
         <v>21136.417368599999</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="31">
         <v>22115.228953458598</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="17">
         <v>39233</v>
       </c>
@@ -3716,7 +3846,7 @@
         <v>30712.177367957313</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="17">
         <v>39246</v>
       </c>
@@ -3739,7 +3869,7 @@
         <v>32726.657776180989</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="17">
         <v>39279</v>
       </c>
@@ -3758,11 +3888,11 @@
       <c r="F17" s="19">
         <v>34682.76271979999</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="31">
         <v>35738.658109519878</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="17">
         <v>39339</v>
       </c>
@@ -3785,7 +3915,7 @@
         <v>11098.923925167686</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="17">
         <v>39374</v>
       </c>
@@ -3804,11 +3934,11 @@
       <c r="F19" s="19">
         <v>30449.307249599999</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="31">
         <v>29398.00409440554</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="17">
         <v>39406</v>
       </c>
@@ -3842,20 +3972,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>111</v>
       </c>
@@ -3905,7 +4035,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
@@ -3915,7 +4045,7 @@
       <c r="C2" s="19">
         <v>18982.847759558852</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="31">
         <f>B2-C2</f>
         <v>286.83740444114665</v>
       </c>
@@ -3928,7 +4058,7 @@
       <c r="G2" s="19">
         <v>35738.658109519878</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="31">
         <f t="shared" ref="H2:H22" si="0">F2-G2</f>
         <v>-1055.895389719888</v>
       </c>
@@ -3941,7 +4071,7 @@
       <c r="K2" s="19">
         <v>1284.2992252379611</v>
       </c>
-      <c r="L2" s="19">
+      <c r="L2" s="31">
         <f t="shared" ref="L2:L22" si="1">J2-K2</f>
         <v>151.87687876203881</v>
       </c>
@@ -3954,12 +4084,12 @@
       <c r="O2" s="19">
         <v>1328.4</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="31">
         <f t="shared" ref="P2:P22" si="2">N2-O2</f>
         <v>167.12222399999996</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>13</v>
       </c>
@@ -3969,7 +4099,7 @@
       <c r="C3" s="19">
         <v>40893.083149311875</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="31">
         <f t="shared" ref="D3:D22" si="3">B3-C3</f>
         <v>-1427.9133493118716</v>
       </c>
@@ -3982,7 +4112,7 @@
       <c r="G3" s="19">
         <v>11098.923925167686</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="31">
         <f t="shared" si="0"/>
         <v>1394.0277960323147</v>
       </c>
@@ -3995,7 +4125,7 @@
       <c r="K3" s="19">
         <v>815.81271540273008</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="31">
         <f t="shared" si="1"/>
         <v>89.215614597270019</v>
       </c>
@@ -4008,12 +4138,12 @@
       <c r="O3" s="19">
         <v>5913.1613436608231</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="31">
         <f t="shared" si="2"/>
         <v>460.61194433917717</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
         <v>14</v>
       </c>
@@ -4023,7 +4153,7 @@
       <c r="C4" s="19">
         <v>22294.085220814908</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="31">
         <f t="shared" si="3"/>
         <v>-1278.1404758149074</v>
       </c>
@@ -4036,7 +4166,7 @@
       <c r="G4" s="19">
         <v>29398.00409440554</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="31">
         <f t="shared" si="0"/>
         <v>1051.3031551944587</v>
       </c>
@@ -4049,7 +4179,7 @@
       <c r="K4" s="19">
         <v>3299.4037062918537</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="31">
         <f t="shared" si="1"/>
         <v>385.99034570814592</v>
       </c>
@@ -4062,12 +4192,12 @@
       <c r="O4" s="19">
         <v>10024.496812205804</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="31">
         <f t="shared" si="2"/>
         <v>904.83301229419703</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
@@ -4077,7 +4207,7 @@
       <c r="C5" s="19">
         <v>24318.374117613792</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="31">
         <f t="shared" si="3"/>
         <v>-608.11552461379324</v>
       </c>
@@ -4090,7 +4220,7 @@
       <c r="G5" s="19">
         <v>11641.50878367756</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="31">
         <f t="shared" si="0"/>
         <v>483.79372412243902</v>
       </c>
@@ -4103,7 +4233,7 @@
       <c r="K5" s="19">
         <v>34040.286295052028</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="31">
         <f t="shared" si="1"/>
         <v>-1263.4242190520308</v>
       </c>
@@ -4116,12 +4246,12 @@
       <c r="O5" s="19">
         <v>11681.871197103554</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="31">
         <f t="shared" si="2"/>
         <v>1506.7654157964462</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>16</v>
       </c>
@@ -4131,7 +4261,7 @@
       <c r="C6" s="19">
         <v>20256.694699447638</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="31">
         <f t="shared" si="3"/>
         <v>-241.62226824764002</v>
       </c>
@@ -4144,7 +4274,7 @@
       <c r="G6" s="19">
         <v>22707.050330980284</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="31">
         <f t="shared" si="0"/>
         <v>213.90486601971497</v>
       </c>
@@ -4157,7 +4287,7 @@
       <c r="K6" s="19">
         <v>18273.767198037083</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="31">
         <f t="shared" si="1"/>
         <v>-389.81393603708057</v>
       </c>
@@ -4170,12 +4300,12 @@
       <c r="O6" s="19">
         <v>7118.8030551437641</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="31">
         <f t="shared" si="2"/>
         <v>903.60544645623577</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
@@ -4185,7 +4315,7 @@
       <c r="C7" s="19">
         <v>43537.557757683368</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="31">
         <f t="shared" si="3"/>
         <v>-3523.4363476833678</v>
       </c>
@@ -4198,7 +4328,7 @@
       <c r="G7" s="19">
         <v>18667.471284403004</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="31">
         <f t="shared" si="0"/>
         <v>-872.5372024030039</v>
       </c>
@@ -4211,7 +4341,7 @@
       <c r="K7" s="19">
         <v>7235.6049503497679</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="31">
         <f t="shared" si="1"/>
         <v>-85.139316849767965</v>
       </c>
@@ -4224,12 +4354,12 @@
       <c r="O7" s="19">
         <v>3226.0299454293067</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="31">
         <f t="shared" si="2"/>
         <v>401.50163957069344</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
         <v>18</v>
       </c>
@@ -4239,7 +4369,7 @@
       <c r="C8" s="19">
         <v>22917.339613203356</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="31">
         <f t="shared" si="3"/>
         <v>-1493.3902932033561</v>
       </c>
@@ -4252,7 +4382,7 @@
       <c r="G8" s="19">
         <v>8601.7455508359071</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="31">
         <f t="shared" si="0"/>
         <v>-276.67183723590824</v>
       </c>
@@ -4265,7 +4395,7 @@
       <c r="K8" s="19">
         <v>27526.627386517041</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="31">
         <f t="shared" si="1"/>
         <v>6674.5415694829608</v>
       </c>
@@ -4278,12 +4408,12 @@
       <c r="O8" s="19">
         <v>14547.905923751439</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="31">
         <f t="shared" si="2"/>
         <v>-68.936296751438931</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
@@ -4293,7 +4423,7 @@
       <c r="C9" s="19">
         <v>44258.364560249865</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="31">
         <f t="shared" si="3"/>
         <v>-4244.2431502498657</v>
       </c>
@@ -4306,7 +4436,7 @@
       <c r="G9" s="19">
         <v>35420.34128341321</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="31">
         <f t="shared" si="0"/>
         <v>32234.235516586785</v>
       </c>
@@ -4319,7 +4449,7 @@
       <c r="K9" s="19">
         <v>6359.2558621442913</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="31">
         <f t="shared" si="1"/>
         <v>1854.2471458557084</v>
       </c>
@@ -4332,12 +4462,12 @@
       <c r="O9" s="19">
         <v>95163.195660967889</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="31">
         <f t="shared" si="2"/>
         <v>3572.4278360321041</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
@@ -4347,7 +4477,7 @@
       <c r="C10" s="19">
         <v>92391.153643258687</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="31">
         <f t="shared" si="3"/>
         <v>-8119.6632432586921</v>
       </c>
@@ -4360,7 +4490,7 @@
       <c r="G10" s="19">
         <v>21929.729629242214</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="31">
         <f t="shared" si="0"/>
         <v>-1729.7940342422153</v>
       </c>
@@ -4373,7 +4503,7 @@
       <c r="K10" s="19">
         <v>6810.4592467602579</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="31">
         <f t="shared" si="1"/>
         <v>2133.001037239741</v>
       </c>
@@ -4386,12 +4516,12 @@
       <c r="O10" s="19">
         <v>38767.626103759474</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="31">
         <f t="shared" si="2"/>
         <v>-177.81157375947805</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
         <v>21</v>
       </c>
@@ -4401,7 +4531,7 @@
       <c r="C11" s="19">
         <v>51700.030820578511</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="31">
         <f t="shared" si="3"/>
         <v>-2994.3734059785202</v>
       </c>
@@ -4414,7 +4544,7 @@
       <c r="G11" s="19">
         <v>3592.3034513829293</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="31">
         <f t="shared" si="0"/>
         <v>1863.2369949170711</v>
       </c>
@@ -4427,7 +4557,7 @@
       <c r="K11" s="19">
         <v>36140.097906537994</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="31">
         <f t="shared" si="1"/>
         <v>9900.6219894620081</v>
       </c>
@@ -4440,12 +4570,12 @@
       <c r="O11" s="19">
         <v>7640.0865363279299</v>
       </c>
-      <c r="P11" s="19">
+      <c r="P11" s="31">
         <f t="shared" si="2"/>
         <v>46.27456077206989</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
         <v>23</v>
       </c>
@@ -4455,7 +4585,7 @@
       <c r="C12" s="19">
         <v>50558.498384562939</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="31">
         <f t="shared" si="3"/>
         <v>-3366.4637605629396</v>
       </c>
@@ -4468,7 +4598,7 @@
       <c r="G12" s="19">
         <v>12651.791490174675</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="31">
         <f t="shared" si="0"/>
         <v>1609.0811458253247</v>
       </c>
@@ -4481,7 +4611,7 @@
       <c r="K12" s="19">
         <v>2117.6191736242486</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="31">
         <f t="shared" si="1"/>
         <v>208.0069038757515</v>
       </c>
@@ -4494,12 +4624,12 @@
       <c r="O12" s="19">
         <v>5904.7508006124744</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="31">
         <f t="shared" si="2"/>
         <v>55.083300387525924</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>24</v>
       </c>
@@ -4509,7 +4639,7 @@
       <c r="C13" s="19">
         <v>22115.228953458598</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="31">
         <f t="shared" si="3"/>
         <v>-978.81158485859851</v>
       </c>
@@ -4522,7 +4652,7 @@
       <c r="G13" s="19">
         <v>3317.8855907823822</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="31">
         <f t="shared" si="0"/>
         <v>554.44873921761746</v>
       </c>
@@ -4535,7 +4665,7 @@
       <c r="K13" s="19">
         <v>21964.924159477523</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="31">
         <f t="shared" si="1"/>
         <v>2105.8621125224781</v>
       </c>
@@ -4548,12 +4678,12 @@
       <c r="O13" s="19">
         <v>17921.207092366367</v>
       </c>
-      <c r="P13" s="19">
+      <c r="P13" s="31">
         <f t="shared" si="2"/>
         <v>3632.1167692336312</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
         <v>25</v>
       </c>
@@ -4563,7 +4693,7 @@
       <c r="C14" s="19">
         <v>30712.177367957313</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="31">
         <f t="shared" si="3"/>
         <v>-3212.6690129573108</v>
       </c>
@@ -4576,7 +4706,7 @@
       <c r="G14" s="19">
         <v>5275.9456288564716</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="31">
         <f t="shared" si="0"/>
         <v>194.28298214352799</v>
       </c>
@@ -4589,7 +4719,7 @@
       <c r="K14" s="19">
         <v>14276.144075623728</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="31">
         <f t="shared" si="1"/>
         <v>2548.4809443762715</v>
       </c>
@@ -4602,12 +4732,12 @@
       <c r="O14" s="19">
         <v>19270.443312698997</v>
       </c>
-      <c r="P14" s="19">
+      <c r="P14" s="31">
         <f t="shared" si="2"/>
         <v>3753.4774025010011</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
         <v>26</v>
       </c>
@@ -4617,7 +4747,7 @@
       <c r="C15" s="19">
         <v>32726.657776180989</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="31">
         <f t="shared" si="3"/>
         <v>-2733.1287281809891</v>
       </c>
@@ -4630,7 +4760,7 @@
       <c r="G15" s="19">
         <v>2871.8391327289928</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="31">
         <f t="shared" si="0"/>
         <v>237.15572877100703</v>
       </c>
@@ -4643,7 +4773,7 @@
       <c r="K15" s="19">
         <v>5974.5662402431417</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="31">
         <f t="shared" si="1"/>
         <v>919.96925075685795</v>
       </c>
@@ -4656,12 +4786,12 @@
       <c r="O15" s="19">
         <v>21935.294301617847</v>
       </c>
-      <c r="P15" s="19">
+      <c r="P15" s="31">
         <f t="shared" si="2"/>
         <v>4177.5919595821506</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
         <v>27</v>
       </c>
@@ -4671,7 +4801,7 @@
       <c r="C16" s="19">
         <v>35738.658109519878</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="31">
         <f t="shared" si="3"/>
         <v>-1055.895389719888</v>
       </c>
@@ -4684,7 +4814,7 @@
       <c r="G16" s="19">
         <v>11757.976188194385</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="31">
         <f t="shared" si="0"/>
         <v>615.68983180561372</v>
       </c>
@@ -4697,7 +4827,7 @@
       <c r="K16" s="19">
         <v>6650.9854214372463</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="31">
         <f t="shared" si="1"/>
         <v>764.31227256275361</v>
       </c>
@@ -4710,12 +4840,12 @@
       <c r="O16" s="19">
         <v>59218.648347329065</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="31">
         <f t="shared" si="2"/>
         <v>11231.130704670933</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
         <v>28</v>
       </c>
@@ -4725,7 +4855,7 @@
       <c r="C17" s="19">
         <v>11098.923925167686</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="31">
         <f t="shared" si="3"/>
         <v>1394.0277960323147</v>
       </c>
@@ -4738,7 +4868,7 @@
       <c r="G17" s="19">
         <v>880.02767666462807</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="31">
         <f t="shared" si="0"/>
         <v>102.15060933537188</v>
       </c>
@@ -4751,7 +4881,7 @@
       <c r="K17" s="19">
         <v>11660.439866836936</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="31">
         <f t="shared" si="1"/>
         <v>2012.9061811630636</v>
       </c>
@@ -4764,12 +4894,12 @@
       <c r="O17" s="19">
         <v>35834.378046084625</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="31">
         <f t="shared" si="2"/>
         <v>5915.6173739153746</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
         <v>29</v>
       </c>
@@ -4779,7 +4909,7 @@
       <c r="C18" s="19">
         <v>29398.00409440554</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="31">
         <f t="shared" si="3"/>
         <v>1051.3031551944587</v>
       </c>
@@ -4792,7 +4922,7 @@
       <c r="G18" s="19">
         <v>626.80264074506783</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="31">
         <f t="shared" si="0"/>
         <v>4738.0866072549316</v>
       </c>
@@ -4805,7 +4935,7 @@
       <c r="K18" s="19">
         <v>34040.286295052028</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="31">
         <f t="shared" si="1"/>
         <v>-1263.4242190520308</v>
       </c>
@@ -4818,12 +4948,12 @@
       <c r="O18" s="19">
         <v>16033.91191822062</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P18" s="31">
         <f t="shared" si="2"/>
         <v>2864.8599957793776</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
         <v>30</v>
       </c>
@@ -4833,7 +4963,7 @@
       <c r="C19" s="19">
         <v>11641.50878367756</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="31">
         <f t="shared" si="3"/>
         <v>483.79372412243902</v>
       </c>
@@ -4846,7 +4976,7 @@
       <c r="G19" s="19">
         <v>2444.0052709206043</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="31">
         <f t="shared" si="0"/>
         <v>275.53067807939578</v>
       </c>
@@ -4859,7 +4989,7 @@
       <c r="K19" s="19">
         <v>18273.767198037083</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="31">
         <f t="shared" si="1"/>
         <v>-389.81393603708057</v>
       </c>
@@ -4872,12 +5002,12 @@
       <c r="O19" s="19">
         <v>15879.069431134334</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P19" s="31">
         <f t="shared" si="2"/>
         <v>2758.8762854656688</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
         <v>114</v>
       </c>
@@ -4887,7 +5017,7 @@
       <c r="C20" s="19">
         <v>22707.050330980284</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="31">
         <f t="shared" si="3"/>
         <v>213.90486601971497</v>
       </c>
@@ -4900,7 +5030,7 @@
       <c r="G20" s="19">
         <v>1468.4628877249143</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="31">
         <f t="shared" si="0"/>
         <v>160.58810627508569</v>
       </c>
@@ -4913,7 +5043,7 @@
       <c r="K20" s="19">
         <v>7235.6049503497679</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="31">
         <f t="shared" si="1"/>
         <v>-85.139316849767965</v>
       </c>
@@ -4926,12 +5056,12 @@
       <c r="O20" s="19">
         <v>24237.501912363976</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P20" s="31">
         <f t="shared" si="2"/>
         <v>3716.7460871360236</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
         <v>115</v>
       </c>
@@ -4941,7 +5071,7 @@
       <c r="C21" s="19">
         <v>18667.471284403004</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="31">
         <f t="shared" si="3"/>
         <v>-872.5372024030039</v>
       </c>
@@ -4954,7 +5084,7 @@
       <c r="G21" s="19">
         <v>883.66248579266016</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="31">
         <f t="shared" si="0"/>
         <v>694.94430620733988</v>
       </c>
@@ -4967,7 +5097,7 @@
       <c r="K21" s="19">
         <v>27526.627386517041</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="31">
         <f t="shared" si="1"/>
         <v>6674.5415694829608</v>
       </c>
@@ -4980,12 +5110,12 @@
       <c r="O21" s="19">
         <v>7012.1365566162049</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="31">
         <f t="shared" si="2"/>
         <v>378.68086288379527</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
         <v>116</v>
       </c>
@@ -4995,7 +5125,7 @@
       <c r="C22" s="19">
         <v>8601.7455508359071</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="31">
         <f t="shared" si="3"/>
         <v>-276.67183723590824</v>
       </c>
@@ -5008,7 +5138,7 @@
       <c r="G22" s="19">
         <v>1961.1814584136916</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="31">
         <f t="shared" si="0"/>
         <v>210.88653358630859</v>
       </c>
@@ -5021,7 +5151,7 @@
       <c r="K22" s="19">
         <v>6359.2558621442913</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="31">
         <f t="shared" si="1"/>
         <v>1854.2471458557084</v>
       </c>
@@ -5034,7 +5164,7 @@
       <c r="O22" s="19">
         <v>8678.1045610334895</v>
       </c>
-      <c r="P22" s="19">
+      <c r="P22" s="31">
         <f t="shared" si="2"/>
         <v>1651.681086166509</v>
       </c>
@@ -5042,782 +5172,785 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="248" width="9" style="11"/>
     <col min="249" max="249" width="3" style="11" customWidth="1"/>
-    <col min="250" max="250" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="251" max="251" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="251" max="251" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="252" max="253" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="254" max="254" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="255" max="258" width="9" style="11"/>
-    <col min="259" max="259" width="11.19921875" style="11" customWidth="1"/>
-    <col min="260" max="260" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="11.25" style="11" customWidth="1"/>
+    <col min="260" max="260" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="261" max="262" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="264" max="265" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="266" max="504" width="9" style="11"/>
     <col min="505" max="505" width="3" style="11" customWidth="1"/>
-    <col min="506" max="506" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="507" max="507" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="506" max="506" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="507" max="507" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="508" max="509" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="510" max="510" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="510" max="510" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="511" max="514" width="9" style="11"/>
-    <col min="515" max="515" width="11.19921875" style="11" customWidth="1"/>
-    <col min="516" max="516" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="11.25" style="11" customWidth="1"/>
+    <col min="516" max="516" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="517" max="518" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="520" max="521" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="522" max="760" width="9" style="11"/>
     <col min="761" max="761" width="3" style="11" customWidth="1"/>
-    <col min="762" max="762" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="763" max="763" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="762" max="762" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="763" max="763" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="764" max="765" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="766" max="766" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="766" max="766" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="767" max="770" width="9" style="11"/>
-    <col min="771" max="771" width="11.19921875" style="11" customWidth="1"/>
-    <col min="772" max="772" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="11.25" style="11" customWidth="1"/>
+    <col min="772" max="772" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="773" max="774" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="776" max="777" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="778" max="1016" width="9" style="11"/>
     <col min="1017" max="1017" width="3" style="11" customWidth="1"/>
-    <col min="1018" max="1018" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="1019" max="1019" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1018" max="1018" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="1019" max="1019" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="1020" max="1021" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="1022" max="1022" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1022" max="1022" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="1023" max="1026" width="9" style="11"/>
-    <col min="1027" max="1027" width="11.19921875" style="11" customWidth="1"/>
-    <col min="1028" max="1028" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="11.25" style="11" customWidth="1"/>
+    <col min="1028" max="1028" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="1029" max="1030" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1033" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="1034" max="1272" width="9" style="11"/>
     <col min="1273" max="1273" width="3" style="11" customWidth="1"/>
-    <col min="1274" max="1274" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="1275" max="1275" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1274" max="1274" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="1275" max="1275" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="1276" max="1277" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="1278" max="1278" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1278" max="1278" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="1279" max="1282" width="9" style="11"/>
-    <col min="1283" max="1283" width="11.19921875" style="11" customWidth="1"/>
-    <col min="1284" max="1284" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="11.25" style="11" customWidth="1"/>
+    <col min="1284" max="1284" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="1285" max="1286" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1289" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="1290" max="1528" width="9" style="11"/>
     <col min="1529" max="1529" width="3" style="11" customWidth="1"/>
-    <col min="1530" max="1530" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="1531" max="1531" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1530" max="1530" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="1531" max="1531" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="1532" max="1533" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="1534" max="1534" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1534" max="1534" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="1535" max="1538" width="9" style="11"/>
-    <col min="1539" max="1539" width="11.19921875" style="11" customWidth="1"/>
-    <col min="1540" max="1540" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="11.25" style="11" customWidth="1"/>
+    <col min="1540" max="1540" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="1541" max="1542" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1545" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="1546" max="1784" width="9" style="11"/>
     <col min="1785" max="1785" width="3" style="11" customWidth="1"/>
-    <col min="1786" max="1786" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="1787" max="1787" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1786" max="1786" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="1787" max="1787" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="1788" max="1789" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="1790" max="1790" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1790" max="1790" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="1791" max="1794" width="9" style="11"/>
-    <col min="1795" max="1795" width="11.19921875" style="11" customWidth="1"/>
-    <col min="1796" max="1796" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="11.25" style="11" customWidth="1"/>
+    <col min="1796" max="1796" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="1797" max="1798" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1801" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="1802" max="2040" width="9" style="11"/>
     <col min="2041" max="2041" width="3" style="11" customWidth="1"/>
-    <col min="2042" max="2042" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2043" max="2043" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2042" max="2042" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2043" max="2043" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="2044" max="2045" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2046" max="2046" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2046" max="2046" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="2047" max="2050" width="9" style="11"/>
-    <col min="2051" max="2051" width="11.19921875" style="11" customWidth="1"/>
-    <col min="2052" max="2052" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="11.25" style="11" customWidth="1"/>
+    <col min="2052" max="2052" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="2053" max="2054" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2057" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="2058" max="2296" width="9" style="11"/>
     <col min="2297" max="2297" width="3" style="11" customWidth="1"/>
-    <col min="2298" max="2298" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2299" max="2299" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2298" max="2298" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2299" max="2299" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="2300" max="2301" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2302" max="2302" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2302" max="2302" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="2303" max="2306" width="9" style="11"/>
-    <col min="2307" max="2307" width="11.19921875" style="11" customWidth="1"/>
-    <col min="2308" max="2308" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="11.25" style="11" customWidth="1"/>
+    <col min="2308" max="2308" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="2309" max="2310" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2313" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="2314" max="2552" width="9" style="11"/>
     <col min="2553" max="2553" width="3" style="11" customWidth="1"/>
-    <col min="2554" max="2554" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2555" max="2555" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2554" max="2554" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2555" max="2555" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="2556" max="2557" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2558" max="2558" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2558" max="2558" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="2559" max="2562" width="9" style="11"/>
-    <col min="2563" max="2563" width="11.19921875" style="11" customWidth="1"/>
-    <col min="2564" max="2564" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="11.25" style="11" customWidth="1"/>
+    <col min="2564" max="2564" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="2565" max="2566" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2569" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="2570" max="2808" width="9" style="11"/>
     <col min="2809" max="2809" width="3" style="11" customWidth="1"/>
-    <col min="2810" max="2810" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2811" max="2811" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2810" max="2810" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2811" max="2811" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="2812" max="2813" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2814" max="2814" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2814" max="2814" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="2815" max="2818" width="9" style="11"/>
-    <col min="2819" max="2819" width="11.19921875" style="11" customWidth="1"/>
-    <col min="2820" max="2820" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="11.25" style="11" customWidth="1"/>
+    <col min="2820" max="2820" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="2821" max="2822" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2825" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="2826" max="3064" width="9" style="11"/>
     <col min="3065" max="3065" width="3" style="11" customWidth="1"/>
-    <col min="3066" max="3066" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3067" max="3067" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3066" max="3066" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="3067" max="3067" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="3068" max="3069" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="3070" max="3070" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3070" max="3070" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="3071" max="3074" width="9" style="11"/>
-    <col min="3075" max="3075" width="11.19921875" style="11" customWidth="1"/>
-    <col min="3076" max="3076" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="11.25" style="11" customWidth="1"/>
+    <col min="3076" max="3076" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3077" max="3078" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3081" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3082" max="3320" width="9" style="11"/>
     <col min="3321" max="3321" width="3" style="11" customWidth="1"/>
-    <col min="3322" max="3322" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3323" max="3323" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3322" max="3322" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="3323" max="3323" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="3324" max="3325" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="3326" max="3326" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3326" max="3326" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="3327" max="3330" width="9" style="11"/>
-    <col min="3331" max="3331" width="11.19921875" style="11" customWidth="1"/>
-    <col min="3332" max="3332" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="11.25" style="11" customWidth="1"/>
+    <col min="3332" max="3332" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3333" max="3334" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3337" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3338" max="3576" width="9" style="11"/>
     <col min="3577" max="3577" width="3" style="11" customWidth="1"/>
-    <col min="3578" max="3578" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3579" max="3579" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3578" max="3578" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="3579" max="3579" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="3580" max="3581" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="3582" max="3582" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3582" max="3582" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="3583" max="3586" width="9" style="11"/>
-    <col min="3587" max="3587" width="11.19921875" style="11" customWidth="1"/>
-    <col min="3588" max="3588" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="11.25" style="11" customWidth="1"/>
+    <col min="3588" max="3588" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3589" max="3590" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3593" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3594" max="3832" width="9" style="11"/>
     <col min="3833" max="3833" width="3" style="11" customWidth="1"/>
-    <col min="3834" max="3834" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3835" max="3835" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3834" max="3834" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="3835" max="3835" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="3836" max="3837" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="3838" max="3838" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3838" max="3838" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="3839" max="3842" width="9" style="11"/>
-    <col min="3843" max="3843" width="11.19921875" style="11" customWidth="1"/>
-    <col min="3844" max="3844" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="11.25" style="11" customWidth="1"/>
+    <col min="3844" max="3844" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3845" max="3846" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3849" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3850" max="4088" width="9" style="11"/>
     <col min="4089" max="4089" width="3" style="11" customWidth="1"/>
-    <col min="4090" max="4090" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4091" max="4091" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4090" max="4090" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="4091" max="4091" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="4092" max="4093" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="4094" max="4094" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4094" max="4094" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="4095" max="4098" width="9" style="11"/>
-    <col min="4099" max="4099" width="11.19921875" style="11" customWidth="1"/>
-    <col min="4100" max="4100" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="11.25" style="11" customWidth="1"/>
+    <col min="4100" max="4100" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="4101" max="4102" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4105" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="4106" max="4344" width="9" style="11"/>
     <col min="4345" max="4345" width="3" style="11" customWidth="1"/>
-    <col min="4346" max="4346" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4347" max="4347" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4346" max="4346" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="4347" max="4347" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="4348" max="4349" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="4350" max="4350" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4350" max="4350" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="4351" max="4354" width="9" style="11"/>
-    <col min="4355" max="4355" width="11.19921875" style="11" customWidth="1"/>
-    <col min="4356" max="4356" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="11.25" style="11" customWidth="1"/>
+    <col min="4356" max="4356" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="4357" max="4358" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4361" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="4362" max="4600" width="9" style="11"/>
     <col min="4601" max="4601" width="3" style="11" customWidth="1"/>
-    <col min="4602" max="4602" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4603" max="4603" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4602" max="4602" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="4603" max="4603" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="4604" max="4605" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="4606" max="4606" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4606" max="4606" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="4607" max="4610" width="9" style="11"/>
-    <col min="4611" max="4611" width="11.19921875" style="11" customWidth="1"/>
-    <col min="4612" max="4612" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="11.25" style="11" customWidth="1"/>
+    <col min="4612" max="4612" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="4613" max="4614" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4617" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="4618" max="4856" width="9" style="11"/>
     <col min="4857" max="4857" width="3" style="11" customWidth="1"/>
-    <col min="4858" max="4858" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4859" max="4859" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4858" max="4858" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="4859" max="4859" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="4860" max="4861" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="4862" max="4862" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4862" max="4862" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="4863" max="4866" width="9" style="11"/>
-    <col min="4867" max="4867" width="11.19921875" style="11" customWidth="1"/>
-    <col min="4868" max="4868" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="11.25" style="11" customWidth="1"/>
+    <col min="4868" max="4868" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="4869" max="4870" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4873" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="4874" max="5112" width="9" style="11"/>
     <col min="5113" max="5113" width="3" style="11" customWidth="1"/>
-    <col min="5114" max="5114" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5115" max="5115" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5114" max="5114" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="5115" max="5115" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="5116" max="5117" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="5118" max="5118" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5118" max="5118" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="5119" max="5122" width="9" style="11"/>
-    <col min="5123" max="5123" width="11.19921875" style="11" customWidth="1"/>
-    <col min="5124" max="5124" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="11.25" style="11" customWidth="1"/>
+    <col min="5124" max="5124" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5125" max="5126" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5129" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5130" max="5368" width="9" style="11"/>
     <col min="5369" max="5369" width="3" style="11" customWidth="1"/>
-    <col min="5370" max="5370" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5371" max="5371" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5370" max="5370" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="5371" max="5371" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="5372" max="5373" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="5374" max="5374" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5374" max="5374" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="5375" max="5378" width="9" style="11"/>
-    <col min="5379" max="5379" width="11.19921875" style="11" customWidth="1"/>
-    <col min="5380" max="5380" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="11.25" style="11" customWidth="1"/>
+    <col min="5380" max="5380" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5381" max="5382" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5385" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5386" max="5624" width="9" style="11"/>
     <col min="5625" max="5625" width="3" style="11" customWidth="1"/>
-    <col min="5626" max="5626" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5627" max="5627" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5626" max="5626" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="5627" max="5627" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="5628" max="5629" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="5630" max="5630" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5630" max="5630" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="5631" max="5634" width="9" style="11"/>
-    <col min="5635" max="5635" width="11.19921875" style="11" customWidth="1"/>
-    <col min="5636" max="5636" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="11.25" style="11" customWidth="1"/>
+    <col min="5636" max="5636" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5637" max="5638" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5641" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5642" max="5880" width="9" style="11"/>
     <col min="5881" max="5881" width="3" style="11" customWidth="1"/>
-    <col min="5882" max="5882" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5883" max="5883" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5882" max="5882" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="5883" max="5883" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="5884" max="5885" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="5886" max="5886" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5886" max="5886" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="5887" max="5890" width="9" style="11"/>
-    <col min="5891" max="5891" width="11.19921875" style="11" customWidth="1"/>
-    <col min="5892" max="5892" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="11.25" style="11" customWidth="1"/>
+    <col min="5892" max="5892" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5893" max="5894" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5897" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5898" max="6136" width="9" style="11"/>
     <col min="6137" max="6137" width="3" style="11" customWidth="1"/>
-    <col min="6138" max="6138" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6139" max="6139" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6138" max="6138" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="6139" max="6139" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="6140" max="6141" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6142" max="6142" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6142" max="6142" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="6143" max="6146" width="9" style="11"/>
-    <col min="6147" max="6147" width="11.19921875" style="11" customWidth="1"/>
-    <col min="6148" max="6148" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="11.25" style="11" customWidth="1"/>
+    <col min="6148" max="6148" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6149" max="6150" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6153" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6154" max="6392" width="9" style="11"/>
     <col min="6393" max="6393" width="3" style="11" customWidth="1"/>
-    <col min="6394" max="6394" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6395" max="6395" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6394" max="6394" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="6395" max="6395" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="6396" max="6397" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6398" max="6398" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6398" max="6398" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="6399" max="6402" width="9" style="11"/>
-    <col min="6403" max="6403" width="11.19921875" style="11" customWidth="1"/>
-    <col min="6404" max="6404" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="11.25" style="11" customWidth="1"/>
+    <col min="6404" max="6404" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6405" max="6406" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6409" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6410" max="6648" width="9" style="11"/>
     <col min="6649" max="6649" width="3" style="11" customWidth="1"/>
-    <col min="6650" max="6650" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6651" max="6651" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6650" max="6650" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="6651" max="6651" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="6652" max="6653" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6654" max="6654" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6654" max="6654" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="6655" max="6658" width="9" style="11"/>
-    <col min="6659" max="6659" width="11.19921875" style="11" customWidth="1"/>
-    <col min="6660" max="6660" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="11.25" style="11" customWidth="1"/>
+    <col min="6660" max="6660" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6661" max="6662" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6665" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6666" max="6904" width="9" style="11"/>
     <col min="6905" max="6905" width="3" style="11" customWidth="1"/>
-    <col min="6906" max="6906" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6907" max="6907" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6906" max="6906" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="6907" max="6907" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="6908" max="6909" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6910" max="6910" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6910" max="6910" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="6911" max="6914" width="9" style="11"/>
-    <col min="6915" max="6915" width="11.19921875" style="11" customWidth="1"/>
-    <col min="6916" max="6916" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="11.25" style="11" customWidth="1"/>
+    <col min="6916" max="6916" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6917" max="6918" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6921" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6922" max="7160" width="9" style="11"/>
     <col min="7161" max="7161" width="3" style="11" customWidth="1"/>
-    <col min="7162" max="7162" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7163" max="7163" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7162" max="7162" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="7163" max="7163" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="7164" max="7165" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="7166" max="7166" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7166" max="7166" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="7167" max="7170" width="9" style="11"/>
-    <col min="7171" max="7171" width="11.19921875" style="11" customWidth="1"/>
-    <col min="7172" max="7172" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="11.25" style="11" customWidth="1"/>
+    <col min="7172" max="7172" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7173" max="7174" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7177" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7178" max="7416" width="9" style="11"/>
     <col min="7417" max="7417" width="3" style="11" customWidth="1"/>
-    <col min="7418" max="7418" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7419" max="7419" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7418" max="7418" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="7419" max="7419" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="7420" max="7421" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="7422" max="7422" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7422" max="7422" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="7423" max="7426" width="9" style="11"/>
-    <col min="7427" max="7427" width="11.19921875" style="11" customWidth="1"/>
-    <col min="7428" max="7428" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="11.25" style="11" customWidth="1"/>
+    <col min="7428" max="7428" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7429" max="7430" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7433" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7434" max="7672" width="9" style="11"/>
     <col min="7673" max="7673" width="3" style="11" customWidth="1"/>
-    <col min="7674" max="7674" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7675" max="7675" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7674" max="7674" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="7675" max="7675" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="7676" max="7677" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="7678" max="7678" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7678" max="7678" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="7679" max="7682" width="9" style="11"/>
-    <col min="7683" max="7683" width="11.19921875" style="11" customWidth="1"/>
-    <col min="7684" max="7684" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="11.25" style="11" customWidth="1"/>
+    <col min="7684" max="7684" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7685" max="7686" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7689" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7690" max="7928" width="9" style="11"/>
     <col min="7929" max="7929" width="3" style="11" customWidth="1"/>
-    <col min="7930" max="7930" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7931" max="7931" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7930" max="7930" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="7931" max="7931" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="7932" max="7933" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="7934" max="7934" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7934" max="7934" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="7935" max="7938" width="9" style="11"/>
-    <col min="7939" max="7939" width="11.19921875" style="11" customWidth="1"/>
-    <col min="7940" max="7940" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="11.25" style="11" customWidth="1"/>
+    <col min="7940" max="7940" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7941" max="7942" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7945" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="7946" max="8184" width="9" style="11"/>
     <col min="8185" max="8185" width="3" style="11" customWidth="1"/>
-    <col min="8186" max="8186" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8187" max="8187" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8186" max="8186" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="8187" max="8187" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="8188" max="8189" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="8190" max="8190" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8190" max="8190" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="8191" max="8194" width="9" style="11"/>
-    <col min="8195" max="8195" width="11.19921875" style="11" customWidth="1"/>
-    <col min="8196" max="8196" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="11.25" style="11" customWidth="1"/>
+    <col min="8196" max="8196" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="8197" max="8198" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8201" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="8202" max="8440" width="9" style="11"/>
     <col min="8441" max="8441" width="3" style="11" customWidth="1"/>
-    <col min="8442" max="8442" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8443" max="8443" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8442" max="8442" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="8443" max="8443" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="8444" max="8445" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="8446" max="8446" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8446" max="8446" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="8447" max="8450" width="9" style="11"/>
-    <col min="8451" max="8451" width="11.19921875" style="11" customWidth="1"/>
-    <col min="8452" max="8452" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="11.25" style="11" customWidth="1"/>
+    <col min="8452" max="8452" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="8453" max="8454" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8457" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="8458" max="8696" width="9" style="11"/>
     <col min="8697" max="8697" width="3" style="11" customWidth="1"/>
-    <col min="8698" max="8698" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8699" max="8699" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8698" max="8698" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="8699" max="8699" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="8700" max="8701" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="8702" max="8702" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8702" max="8702" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="8703" max="8706" width="9" style="11"/>
-    <col min="8707" max="8707" width="11.19921875" style="11" customWidth="1"/>
-    <col min="8708" max="8708" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="11.25" style="11" customWidth="1"/>
+    <col min="8708" max="8708" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="8709" max="8710" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8713" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="8714" max="8952" width="9" style="11"/>
     <col min="8953" max="8953" width="3" style="11" customWidth="1"/>
-    <col min="8954" max="8954" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8955" max="8955" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8954" max="8954" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="8955" max="8955" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="8956" max="8957" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="8958" max="8958" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8958" max="8958" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="8959" max="8962" width="9" style="11"/>
-    <col min="8963" max="8963" width="11.19921875" style="11" customWidth="1"/>
-    <col min="8964" max="8964" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="11.25" style="11" customWidth="1"/>
+    <col min="8964" max="8964" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="8965" max="8966" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8969" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="8970" max="9208" width="9" style="11"/>
     <col min="9209" max="9209" width="3" style="11" customWidth="1"/>
-    <col min="9210" max="9210" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9211" max="9211" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9210" max="9210" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="9211" max="9211" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="9212" max="9213" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="9214" max="9214" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9214" max="9214" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="9215" max="9218" width="9" style="11"/>
-    <col min="9219" max="9219" width="11.19921875" style="11" customWidth="1"/>
-    <col min="9220" max="9220" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="11.25" style="11" customWidth="1"/>
+    <col min="9220" max="9220" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9221" max="9222" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9225" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9226" max="9464" width="9" style="11"/>
     <col min="9465" max="9465" width="3" style="11" customWidth="1"/>
-    <col min="9466" max="9466" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9467" max="9467" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9466" max="9466" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="9467" max="9467" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="9468" max="9469" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="9470" max="9470" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9470" max="9470" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="9471" max="9474" width="9" style="11"/>
-    <col min="9475" max="9475" width="11.19921875" style="11" customWidth="1"/>
-    <col min="9476" max="9476" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="11.25" style="11" customWidth="1"/>
+    <col min="9476" max="9476" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9477" max="9478" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9481" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9482" max="9720" width="9" style="11"/>
     <col min="9721" max="9721" width="3" style="11" customWidth="1"/>
-    <col min="9722" max="9722" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9723" max="9723" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9722" max="9722" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="9723" max="9723" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="9724" max="9725" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="9726" max="9726" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9726" max="9726" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="9727" max="9730" width="9" style="11"/>
-    <col min="9731" max="9731" width="11.19921875" style="11" customWidth="1"/>
-    <col min="9732" max="9732" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="11.25" style="11" customWidth="1"/>
+    <col min="9732" max="9732" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9733" max="9734" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9737" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9738" max="9976" width="9" style="11"/>
     <col min="9977" max="9977" width="3" style="11" customWidth="1"/>
-    <col min="9978" max="9978" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9979" max="9979" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9978" max="9978" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="9979" max="9979" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="9980" max="9981" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="9982" max="9982" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9982" max="9982" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="9983" max="9986" width="9" style="11"/>
-    <col min="9987" max="9987" width="11.19921875" style="11" customWidth="1"/>
-    <col min="9988" max="9988" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="11.25" style="11" customWidth="1"/>
+    <col min="9988" max="9988" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9989" max="9990" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9993" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="9994" max="10232" width="9" style="11"/>
     <col min="10233" max="10233" width="3" style="11" customWidth="1"/>
-    <col min="10234" max="10234" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10235" max="10235" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10234" max="10234" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="10235" max="10235" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="10236" max="10237" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="10238" max="10238" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10238" max="10238" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="10239" max="10242" width="9" style="11"/>
-    <col min="10243" max="10243" width="11.19921875" style="11" customWidth="1"/>
-    <col min="10244" max="10244" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="11.25" style="11" customWidth="1"/>
+    <col min="10244" max="10244" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="10245" max="10246" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10249" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="10250" max="10488" width="9" style="11"/>
     <col min="10489" max="10489" width="3" style="11" customWidth="1"/>
-    <col min="10490" max="10490" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10491" max="10491" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10490" max="10490" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="10491" max="10491" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="10492" max="10493" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="10494" max="10494" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10494" max="10494" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="10495" max="10498" width="9" style="11"/>
-    <col min="10499" max="10499" width="11.19921875" style="11" customWidth="1"/>
-    <col min="10500" max="10500" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="11.25" style="11" customWidth="1"/>
+    <col min="10500" max="10500" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="10501" max="10502" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10505" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="10506" max="10744" width="9" style="11"/>
     <col min="10745" max="10745" width="3" style="11" customWidth="1"/>
-    <col min="10746" max="10746" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10747" max="10747" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10746" max="10746" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="10747" max="10747" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="10748" max="10749" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="10750" max="10750" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10750" max="10750" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="10751" max="10754" width="9" style="11"/>
-    <col min="10755" max="10755" width="11.19921875" style="11" customWidth="1"/>
-    <col min="10756" max="10756" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="11.25" style="11" customWidth="1"/>
+    <col min="10756" max="10756" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="10757" max="10758" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10761" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="10762" max="11000" width="9" style="11"/>
     <col min="11001" max="11001" width="3" style="11" customWidth="1"/>
-    <col min="11002" max="11002" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11003" max="11003" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11002" max="11002" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="11003" max="11003" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="11004" max="11005" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="11006" max="11006" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11006" max="11006" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="11007" max="11010" width="9" style="11"/>
-    <col min="11011" max="11011" width="11.19921875" style="11" customWidth="1"/>
-    <col min="11012" max="11012" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="11.25" style="11" customWidth="1"/>
+    <col min="11012" max="11012" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="11013" max="11014" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11017" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="11018" max="11256" width="9" style="11"/>
     <col min="11257" max="11257" width="3" style="11" customWidth="1"/>
-    <col min="11258" max="11258" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11259" max="11259" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11258" max="11258" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="11259" max="11259" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="11260" max="11261" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="11262" max="11262" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11262" max="11262" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="11263" max="11266" width="9" style="11"/>
-    <col min="11267" max="11267" width="11.19921875" style="11" customWidth="1"/>
-    <col min="11268" max="11268" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="11.25" style="11" customWidth="1"/>
+    <col min="11268" max="11268" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="11269" max="11270" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11273" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="11274" max="11512" width="9" style="11"/>
     <col min="11513" max="11513" width="3" style="11" customWidth="1"/>
-    <col min="11514" max="11514" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11515" max="11515" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11514" max="11514" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="11515" max="11515" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="11516" max="11517" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="11518" max="11518" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11518" max="11518" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="11519" max="11522" width="9" style="11"/>
-    <col min="11523" max="11523" width="11.19921875" style="11" customWidth="1"/>
-    <col min="11524" max="11524" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="11.25" style="11" customWidth="1"/>
+    <col min="11524" max="11524" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="11525" max="11526" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11529" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="11530" max="11768" width="9" style="11"/>
     <col min="11769" max="11769" width="3" style="11" customWidth="1"/>
-    <col min="11770" max="11770" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11771" max="11771" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11770" max="11770" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="11771" max="11771" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="11772" max="11773" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="11774" max="11774" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11774" max="11774" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="11775" max="11778" width="9" style="11"/>
-    <col min="11779" max="11779" width="11.19921875" style="11" customWidth="1"/>
-    <col min="11780" max="11780" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="11.25" style="11" customWidth="1"/>
+    <col min="11780" max="11780" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="11781" max="11782" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11785" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="11786" max="12024" width="9" style="11"/>
     <col min="12025" max="12025" width="3" style="11" customWidth="1"/>
-    <col min="12026" max="12026" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12027" max="12027" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12026" max="12026" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="12027" max="12027" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="12028" max="12029" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="12030" max="12030" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12030" max="12030" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="12031" max="12034" width="9" style="11"/>
-    <col min="12035" max="12035" width="11.19921875" style="11" customWidth="1"/>
-    <col min="12036" max="12036" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="11.25" style="11" customWidth="1"/>
+    <col min="12036" max="12036" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="12037" max="12038" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12041" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="12042" max="12280" width="9" style="11"/>
     <col min="12281" max="12281" width="3" style="11" customWidth="1"/>
-    <col min="12282" max="12282" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12283" max="12283" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12282" max="12282" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="12283" max="12283" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="12284" max="12285" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="12286" max="12286" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12286" max="12286" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="12287" max="12290" width="9" style="11"/>
-    <col min="12291" max="12291" width="11.19921875" style="11" customWidth="1"/>
-    <col min="12292" max="12292" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="11.25" style="11" customWidth="1"/>
+    <col min="12292" max="12292" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="12293" max="12294" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12297" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="12298" max="12536" width="9" style="11"/>
     <col min="12537" max="12537" width="3" style="11" customWidth="1"/>
-    <col min="12538" max="12538" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12539" max="12539" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12538" max="12538" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="12539" max="12539" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="12540" max="12541" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="12542" max="12542" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12542" max="12542" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="12543" max="12546" width="9" style="11"/>
-    <col min="12547" max="12547" width="11.19921875" style="11" customWidth="1"/>
-    <col min="12548" max="12548" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="11.25" style="11" customWidth="1"/>
+    <col min="12548" max="12548" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="12549" max="12550" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12553" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="12554" max="12792" width="9" style="11"/>
     <col min="12793" max="12793" width="3" style="11" customWidth="1"/>
-    <col min="12794" max="12794" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12795" max="12795" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12794" max="12794" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="12795" max="12795" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="12796" max="12797" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="12798" max="12798" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12798" max="12798" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="12799" max="12802" width="9" style="11"/>
-    <col min="12803" max="12803" width="11.19921875" style="11" customWidth="1"/>
-    <col min="12804" max="12804" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="11.25" style="11" customWidth="1"/>
+    <col min="12804" max="12804" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="12805" max="12806" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12809" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="12810" max="13048" width="9" style="11"/>
     <col min="13049" max="13049" width="3" style="11" customWidth="1"/>
-    <col min="13050" max="13050" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13051" max="13051" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13050" max="13050" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="13051" max="13051" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="13052" max="13053" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="13054" max="13054" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13054" max="13054" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="13055" max="13058" width="9" style="11"/>
-    <col min="13059" max="13059" width="11.19921875" style="11" customWidth="1"/>
-    <col min="13060" max="13060" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="11.25" style="11" customWidth="1"/>
+    <col min="13060" max="13060" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="13061" max="13062" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13065" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="13066" max="13304" width="9" style="11"/>
     <col min="13305" max="13305" width="3" style="11" customWidth="1"/>
-    <col min="13306" max="13306" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13307" max="13307" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13306" max="13306" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="13307" max="13307" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="13308" max="13309" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="13310" max="13310" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13310" max="13310" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="13311" max="13314" width="9" style="11"/>
-    <col min="13315" max="13315" width="11.19921875" style="11" customWidth="1"/>
-    <col min="13316" max="13316" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="11.25" style="11" customWidth="1"/>
+    <col min="13316" max="13316" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="13317" max="13318" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13321" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="13322" max="13560" width="9" style="11"/>
     <col min="13561" max="13561" width="3" style="11" customWidth="1"/>
-    <col min="13562" max="13562" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13563" max="13563" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13562" max="13562" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="13563" max="13563" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="13564" max="13565" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="13566" max="13566" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13566" max="13566" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="13567" max="13570" width="9" style="11"/>
-    <col min="13571" max="13571" width="11.19921875" style="11" customWidth="1"/>
-    <col min="13572" max="13572" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="11.25" style="11" customWidth="1"/>
+    <col min="13572" max="13572" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="13573" max="13574" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13577" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="13578" max="13816" width="9" style="11"/>
     <col min="13817" max="13817" width="3" style="11" customWidth="1"/>
-    <col min="13818" max="13818" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13819" max="13819" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13818" max="13818" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="13819" max="13819" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="13820" max="13821" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="13822" max="13822" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13822" max="13822" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="13823" max="13826" width="9" style="11"/>
-    <col min="13827" max="13827" width="11.19921875" style="11" customWidth="1"/>
-    <col min="13828" max="13828" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="11.25" style="11" customWidth="1"/>
+    <col min="13828" max="13828" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="13829" max="13830" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13833" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="13834" max="14072" width="9" style="11"/>
     <col min="14073" max="14073" width="3" style="11" customWidth="1"/>
-    <col min="14074" max="14074" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14075" max="14075" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14074" max="14074" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="14075" max="14075" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="14076" max="14077" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="14078" max="14078" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14078" max="14078" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="14079" max="14082" width="9" style="11"/>
-    <col min="14083" max="14083" width="11.19921875" style="11" customWidth="1"/>
-    <col min="14084" max="14084" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="11.25" style="11" customWidth="1"/>
+    <col min="14084" max="14084" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="14085" max="14086" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14089" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="14090" max="14328" width="9" style="11"/>
     <col min="14329" max="14329" width="3" style="11" customWidth="1"/>
-    <col min="14330" max="14330" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14331" max="14331" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14330" max="14330" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="14331" max="14331" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="14332" max="14333" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="14334" max="14334" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14334" max="14334" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="14335" max="14338" width="9" style="11"/>
-    <col min="14339" max="14339" width="11.19921875" style="11" customWidth="1"/>
-    <col min="14340" max="14340" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="11.25" style="11" customWidth="1"/>
+    <col min="14340" max="14340" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="14341" max="14342" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14345" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="14346" max="14584" width="9" style="11"/>
     <col min="14585" max="14585" width="3" style="11" customWidth="1"/>
-    <col min="14586" max="14586" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14587" max="14587" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14586" max="14586" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="14587" max="14587" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="14588" max="14589" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="14590" max="14590" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14590" max="14590" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="14591" max="14594" width="9" style="11"/>
-    <col min="14595" max="14595" width="11.19921875" style="11" customWidth="1"/>
-    <col min="14596" max="14596" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="11.25" style="11" customWidth="1"/>
+    <col min="14596" max="14596" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="14597" max="14598" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14601" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="14602" max="14840" width="9" style="11"/>
     <col min="14841" max="14841" width="3" style="11" customWidth="1"/>
-    <col min="14842" max="14842" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14843" max="14843" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14842" max="14842" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="14843" max="14843" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="14844" max="14845" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="14846" max="14846" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14846" max="14846" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="14847" max="14850" width="9" style="11"/>
-    <col min="14851" max="14851" width="11.19921875" style="11" customWidth="1"/>
-    <col min="14852" max="14852" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="11.25" style="11" customWidth="1"/>
+    <col min="14852" max="14852" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="14853" max="14854" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14857" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="14858" max="15096" width="9" style="11"/>
     <col min="15097" max="15097" width="3" style="11" customWidth="1"/>
-    <col min="15098" max="15098" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15099" max="15099" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15098" max="15098" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="15099" max="15099" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="15100" max="15101" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="15102" max="15102" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15102" max="15102" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="15103" max="15106" width="9" style="11"/>
-    <col min="15107" max="15107" width="11.19921875" style="11" customWidth="1"/>
-    <col min="15108" max="15108" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="11.25" style="11" customWidth="1"/>
+    <col min="15108" max="15108" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="15109" max="15110" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15113" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="15114" max="15352" width="9" style="11"/>
     <col min="15353" max="15353" width="3" style="11" customWidth="1"/>
-    <col min="15354" max="15354" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15355" max="15355" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15354" max="15354" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="15355" max="15355" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="15356" max="15357" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="15358" max="15358" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15358" max="15358" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="15359" max="15362" width="9" style="11"/>
-    <col min="15363" max="15363" width="11.19921875" style="11" customWidth="1"/>
-    <col min="15364" max="15364" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="11.25" style="11" customWidth="1"/>
+    <col min="15364" max="15364" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="15365" max="15366" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15369" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="15370" max="15608" width="9" style="11"/>
     <col min="15609" max="15609" width="3" style="11" customWidth="1"/>
-    <col min="15610" max="15610" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15611" max="15611" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15610" max="15610" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="15611" max="15611" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="15612" max="15613" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="15614" max="15614" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15614" max="15614" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="15615" max="15618" width="9" style="11"/>
-    <col min="15619" max="15619" width="11.19921875" style="11" customWidth="1"/>
-    <col min="15620" max="15620" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="11.25" style="11" customWidth="1"/>
+    <col min="15620" max="15620" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="15621" max="15622" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15625" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="15626" max="15864" width="9" style="11"/>
     <col min="15865" max="15865" width="3" style="11" customWidth="1"/>
-    <col min="15866" max="15866" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15867" max="15867" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15866" max="15866" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="15867" max="15867" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="15868" max="15869" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="15870" max="15870" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15870" max="15870" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="15871" max="15874" width="9" style="11"/>
-    <col min="15875" max="15875" width="11.19921875" style="11" customWidth="1"/>
-    <col min="15876" max="15876" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="11.25" style="11" customWidth="1"/>
+    <col min="15876" max="15876" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="15877" max="15878" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15881" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="15882" max="16120" width="9" style="11"/>
     <col min="16121" max="16121" width="3" style="11" customWidth="1"/>
-    <col min="16122" max="16122" width="12.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16123" max="16123" width="9.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16122" max="16122" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="16123" max="16123" width="9.75" style="11" bestFit="1" customWidth="1"/>
     <col min="16124" max="16125" width="7.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="16126" max="16126" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16126" max="16126" width="4.75" style="11" bestFit="1" customWidth="1"/>
     <col min="16127" max="16130" width="9" style="11"/>
-    <col min="16131" max="16131" width="11.19921875" style="11" customWidth="1"/>
-    <col min="16132" max="16132" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="11.25" style="11" customWidth="1"/>
+    <col min="16132" max="16132" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="16133" max="16134" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="4.69921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16137" width="11.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="4.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="16138" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5828,7 +5961,7 @@
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
     </row>
-    <row r="3" spans="2:8" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
@@ -5851,14 +5984,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="12" x14ac:dyDescent="0.15">
       <c r="B4" s="17">
         <v>39162</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>106</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -5874,14 +6007,17 @@
         <v>18982.847759558852</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="12" x14ac:dyDescent="0.15">
       <c r="B5" s="17">
         <v>39200</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="33" t="str">
+        <f t="shared" ref="D5:D6" si="0">D4</f>
+        <v>北京</v>
+      </c>
       <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
@@ -5895,14 +6031,17 @@
         <v>40893.083149311875</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="12" x14ac:dyDescent="0.15">
       <c r="B6" s="17">
         <v>39200</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>北京</v>
+      </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
@@ -5916,14 +6055,14 @@
         <v>22294.085220814908</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="12" x14ac:dyDescent="0.15">
       <c r="B7" s="17">
         <v>39233</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="32" t="s">
         <v>107</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -5939,14 +6078,17 @@
         <v>24318.374117613792</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="12" x14ac:dyDescent="0.15">
       <c r="B8" s="17">
         <v>39246</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="33" t="str">
+        <f t="shared" ref="D8:D11" si="1">D7</f>
+        <v>上海</v>
+      </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
@@ -5960,14 +6102,17 @@
         <v>20256.694699447638</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="12" x14ac:dyDescent="0.15">
       <c r="B9" s="17">
         <v>39279</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>上海</v>
+      </c>
       <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
@@ -5981,14 +6126,17 @@
         <v>43537.557757683368</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="12" x14ac:dyDescent="0.15">
       <c r="B10" s="17">
         <v>39339</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>上海</v>
+      </c>
       <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
@@ -6002,14 +6150,17 @@
         <v>22917.339613203356</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="12" x14ac:dyDescent="0.15">
       <c r="B11" s="17">
         <v>39374</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="33"/>
+      <c r="D11" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>上海</v>
+      </c>
       <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
@@ -6023,14 +6174,14 @@
         <v>44258.364560249865</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="12" x14ac:dyDescent="0.15">
       <c r="B12" s="17">
         <v>39406</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="32" t="s">
         <v>108</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -6046,14 +6197,17 @@
         <v>92391.153643258687</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="12" x14ac:dyDescent="0.15">
       <c r="B13" s="17">
         <v>39162</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="33" t="str">
+        <f t="shared" ref="D13:D15" si="2">D12</f>
+        <v>广州</v>
+      </c>
       <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
@@ -6067,14 +6221,17 @@
         <v>51700.030820578511</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="12" x14ac:dyDescent="0.15">
       <c r="B14" s="17">
         <v>39200</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="33" t="str">
+        <f t="shared" si="2"/>
+        <v>广州</v>
+      </c>
       <c r="E14" s="8" t="s">
         <v>12</v>
       </c>
@@ -6088,14 +6245,17 @@
         <v>50558.498384562939</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="12" x14ac:dyDescent="0.15">
       <c r="B15" s="17">
         <v>39200</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>广州</v>
+      </c>
       <c r="E15" s="8" t="s">
         <v>12</v>
       </c>
@@ -6109,14 +6269,14 @@
         <v>22115.228953458598</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="12" x14ac:dyDescent="0.15">
       <c r="B16" s="17">
         <v>39233</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="32" t="s">
         <v>109</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -6132,14 +6292,17 @@
         <v>30712.177367957313</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="12" x14ac:dyDescent="0.15">
       <c r="B17" s="17">
         <v>39246</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="33" t="str">
+        <f t="shared" ref="D17:D21" si="3">D16</f>
+        <v>深圳</v>
+      </c>
       <c r="E17" s="8" t="s">
         <v>12</v>
       </c>
@@ -6153,14 +6316,17 @@
         <v>32726.657776180989</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="12" x14ac:dyDescent="0.15">
       <c r="B18" s="17">
         <v>39279</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="32"/>
+      <c r="D18" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>深圳</v>
+      </c>
       <c r="E18" s="8" t="s">
         <v>12</v>
       </c>
@@ -6174,14 +6340,17 @@
         <v>35738.658109519878</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="12" x14ac:dyDescent="0.15">
       <c r="B19" s="17">
         <v>39339</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="32"/>
+      <c r="D19" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>深圳</v>
+      </c>
       <c r="E19" s="8" t="s">
         <v>12</v>
       </c>
@@ -6195,14 +6364,17 @@
         <v>11098.923925167686</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="12" x14ac:dyDescent="0.15">
       <c r="B20" s="17">
         <v>39374</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="32"/>
+      <c r="D20" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>深圳</v>
+      </c>
       <c r="E20" s="8" t="s">
         <v>12</v>
       </c>
@@ -6216,14 +6388,17 @@
         <v>29398.00409440554</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="12" x14ac:dyDescent="0.15">
       <c r="B21" s="17">
         <v>39406</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="33"/>
+      <c r="D21" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>深圳</v>
+      </c>
       <c r="E21" s="8" t="s">
         <v>12</v>
       </c>
@@ -6238,12 +6413,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="1">
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D21"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6251,19 +6422,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
@@ -6271,7 +6442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="17">
         <v>39162</v>
       </c>
@@ -6279,7 +6450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>39200</v>
       </c>
@@ -6287,7 +6458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>39200</v>
       </c>
@@ -6295,7 +6466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <v>39233</v>
       </c>
@@ -6303,7 +6474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <v>39246</v>
       </c>
@@ -6311,7 +6482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <v>39279</v>
       </c>
@@ -6319,7 +6490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
         <v>39339</v>
       </c>
@@ -6327,7 +6498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="17">
         <v>39374</v>
       </c>
@@ -6335,7 +6506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="17">
         <v>39406</v>
       </c>
@@ -6343,7 +6514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="17">
         <v>39162</v>
       </c>
@@ -6351,7 +6522,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="17">
         <v>39200</v>
       </c>
@@ -6359,7 +6530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="17">
         <v>39200</v>
       </c>
@@ -6367,7 +6538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="17">
         <v>39233</v>
       </c>
@@ -6375,7 +6546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="17">
         <v>39246</v>
       </c>
@@ -6383,7 +6554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="17">
         <v>39279</v>
       </c>
@@ -6391,7 +6562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="17">
         <v>39339</v>
       </c>
@@ -6399,7 +6570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="17">
         <v>39374</v>
       </c>
@@ -6407,7 +6578,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="17">
         <v>39406</v>
       </c>
